--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVw%2Fpr18caxS463F6WlgbA7WIR12Z4vwQ9f1icOqSCBGlu2jawfbDW7AQXQeQCviaKD%2FcZ5MQK62wEK2P68olIHtOKn7x7ZAXI9qRt%2FZ5%2B7s8vbMj4jRboO4oGvuBxURel5sSgsCCYq1n%2BMfZY%2Bbntkn7OxDXY%2FR%2FjDABw303LkCLo%3D%7Ctkp%3ABk9SR-Dk6PKiYQ</t>
+          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwgqcyeXpXss0Zbxtw4bIJdJg%2F%2BGI4KVc7N8VAIMTdvryCAfsB%2BCqB9OhIxqFbQVGz5jcqNq0iPgYd3yJY8PaTW3dGZzVSZKi8ye64tOIG4BbFl9wPo%2FXKUfb7rmi8qYHPsn19vrzPxNGRdUZo839dCxpSzON%2Bx1UpcopAvtsUq%2FU%3D%7Ctkp%3ABk9SR8iny_WiYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGz3uKz1YiRLiOqH2%2Fad6eZNiRmRsyC5%2FeQvkxqG7%2FWHbOiyUjmbaopu4Yvk8vot00f9oGULqZRxrRw7iAcvvjSEwf30JPTcD3q8SN2zw%2BuSRbxBk3WG9qoYfXTNGqMw%2B3K4srLiSehksAfVOfMSBGjf0sUy5EVoGIyClH%2B5rlgdM%3D%7Ctkp%3ABk9SR-Dk6PKiYQ</t>
+          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGvbQ28AjyzxEnVXuDJxoSUAfr96oy1ggOcBytJc68p3PntYxhQ520HZ5nOrKhLYsvv5ThaecaSfzmD2kt11PddWU3fuZ%2BKEhhfY2eXoYUGcyUb8IP%2F7hQSBdp1NulNjugGuAsEnvu2vAtIm%2FTlkdg%2BoTlf4FVfb1WeuTDidES%2BJw%3D%7Ctkp%3ABk9SR8iny_WiYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmfbDl0QkxD2vnTmuM5K%2BIRT75Xi5I9R6jPvc%2B7Rpyfz5SnXQgLkaRmlGvOzJNOHAdqruMpn6Vvj%2FRssUNiJjxx74KdIUWmyw31cbYMOuPFYAj32cEeRtiRHCYEJ%2Fj5kjSZZV9lRj4W0V61pfqOTwEKGMwHXbjEranSkS%2BQedanCg%3D%7Ctkp%3ABk9SR-Dk6PKiYQ</t>
+          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmN6gp%2FFJAB1G1f9hqmvnROXb%2Fu4gXud0efKwZiNBs8DjKWbubt7YJcAdN3WalNT5xsi3kwyqgo4%2BEqa2xmpM4X5eCxwwQUNOY5hjwPdSe80X6xau85UsLU%2BW%2FRviWbgEjNdgDjWzLpRzXpQCR5JOHlVdpI8ggAaUuuI%2BZOJJ87Tg%3D%7Ctkp%3ABk9SR8iny_WiYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJncDoSLrjpG2kX9G%2FlEMIItTfIeNE8D4aOqyq7U09rQsOdriXK7BT7tLGJm8akwNHRb%2F5vQybxjj0CbGeBC079Jcowp6C0iwEQO1c3IYCtnz1KzxOKmeifddWEVTtzAvxF6s9Eemj2bbcByCmY8b%2FIug%3D%3D%7Ctkp%3ABk9SR-Dk6PKiYQ</t>
+          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnZs8siFFgdzsbm%2Fz4kohaa29WIb2K7LfA%2Fh6sqiwl0KAPk5ah%2BTACs6dES6xcwAVXTghRZAo1fHvOjV%2BVjwqdDYrw4VT2s0RpiwbNyEFViO4yPAaYFBf7lP9LrhPQmP2jUhsDJeAlpil5al3p%2B%2FEyoQ%3D%3D%7Ctkp%3ABk9SR8iny_WiYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHDXrpJPwIhO2tZOaCGWoGy1wCYofa9cMSi4GkTVXqb0s9adHl17iPp1vaCw%2BhUlI6UgMWlu1BtnDv1qL7hM1Tox3OKLs2tZOOLE7D1wNpfyaUlZynJ4GQ56CuJKDEvJFC%2F1F6vHR0VrUy4p3A48vvqiTaWPhbenkROTJxBicH%2B84%3D%7Ctkp%3ABk9SR-Dk6PKiYQ</t>
+          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHM1RvtzWNzUhZHfc8VMYApuTVLPMMLIenDSFgUNx1YyKDDLaQzQ7I6ctVeEuDhtNZcBP5d7V8f7WkNiMUTnDCehDA%2FGXk5BhTmuEdQ7evkBEESCYVSWCl4a0HCngXid7gSVnyI26WiFR1or3WKuZrwzecm3%2Btk9YLyRpKtrKOcWA%3D%7Ctkp%3ABk9SR8iny_WiYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwoXIYQTm%2FdhqQlx982bEYf3mIC5ou9h%2BPPvaof3P5e1kvbsRXNEUaZiCeEhZKd1GSWZFC5OHzEp3P0qlZU%2FJCNCdGS35eBgFHDN0beOVJfUIULJLi941ftR1WB4ZVKzYGc5tC7SOZPORvd5sw%2F2%2BHcuXQLW6Y%2B9GvIKtM62luPjI%3D%7Ctkp%3ABk9SR5aB_fWiYQ</t>
+          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwFwBouel6ZNeh77z1LZwqB50vruXLvrfF5KQdexed9Oc3fnFiE65OFeD7Fi9288UjRupPWDc99Y1ghXmA2DXZWUK0geD3ZPZA97vg1GxSvlxuRd0I4GmmergnjsTFJ2jFhK00TeNZ8N9sYWRVq%2F1n0FvNg8%2FlXgDrEmCr9G93Af0%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGhf3Q2WOthCFroxtagLyWhA1qk2gPQapg8gp9C031pv3nGfB5enWztZDU%2FDeWtGPnzAPZDON7p0eRAjN129nZv3D2mcNZDczDwdCqqpt57QM72%2BUsWcyvgU7Nw2WqYv9j4EQRPCDc%2B1ZD5gC3beOWVnAE%2BnOk%2BKmgTYw1belVD%2F0%3D%7Ctkp%3ABk9SR5aB_fWiYQ</t>
+          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGbhST2ZWVdK8eNscwvnvjWm%2BFuKTh9B9sd77YoRHRQffyKxlhZcP8EN%2Ba%2FJMIPgeeQcYY9VIS9y8mZKjAbJg%2B6XBMIyTiooX70JcOxwztQ%2B1j%2Bm207BDnsVOfMzTBQCA8SJ6mkhKxFY%2FHdsiMoiGcsip2NXS6xPPXGareY2jfOnQ%3D%7Ctkp%3ABk9SR7CFyoOjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -570,16 +570,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Novo anúncioTarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
+          <t>SAPPHIRE NITRO+ AMD Radeon RX 6900 XT SE 16GB GDDR6 Grafikkarte, Wie Neu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmXRfK%2Bechqt5rUTMC3WrHbfpoqlXqnFMWG0SyXGe5hHh9FhcK%2BzblWTVfoHp2x7Fqwej%2BjSXxAEwTbnL7uo49FTn%2BaQWslTRcq3Wnt5XkXxjr42m%2FnkhmJLE9Q9qz0WkswflUWspVcou8rjlInY7YS6rCgp82xUa7DJK7bCYldX8%3D%7Ctkp%3ABk9SR5aB_fWiYQ</t>
+          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnTEF%2BXKO0kK2lgYMQeolJDMdK4U9bEGxsdJmhvO0YRH%2FSUAYSo7XX1FhD4MjojlggD2ptWyvyWNQvhC%2BPg%2BnXybznbTP6CPPDN1MJ%2FCKWUsIY4%2BRKIZa6VQXa7z%2FVbErUMosK6B89MtHeKjNr9zJ%2FpA%3D%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,18 +588,18 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -614,16 +614,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAPPHIRE NITRO+ AMD Radeon RX 6900 XT SE 16GB GDDR6 Grafikkarte, Wie Neu</t>
+          <t>Novo anúncioTarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnJdd2DZWqm4w2Cqdx6EvqGaXekFc0Ugs%2FBW9IGE36blAehXG%2FRbK39qRCtGd6cBHkXYRzEF3ohPZPFR%2F48e2856ftjdgxleoFd8TRqdHk0325M32HwX3l1rBvrqlOsZZV7ExXr59%2FfpDl6L%2Bcvh6IPg%3D%3D%7Ctkp%3ABk9SR5aB_fWiYQ</t>
+          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmJMWtsxg3TAI0xLNybDthbWeYCOO%2FcLj4fXkLM26JTyS%2B3eCW%2BR33fAAKhS9qANH1YiT53oW5Fr%2FHmViOQagMpsb8wTOAXtbN7%2BrDwz%2B5mjSKKxuGKGoZ0QEXqU9VQZX0KN6vJFEZQtA084WohwwC7h6N0yCiHKXwwYS9ruKh09g%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -632,18 +632,18 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de Espanha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLH%2BblObfvWStcz5paYP27BGQxzJW1wmQiV1QYJYBTCGFpg4v1oBEgVNzCa%2B%2BJlUiSZ9sauWU6NUA%2BF332pVx0KDHUtBNxcrFGFkxq6xIhy1X3lIstPZ3OyLeMxmPVW8NKYnLokwtTXzQQYAhdt3mDBV%2BzbHUMMfimegGiU%2FDljCGA%3D%7Ctkp%3ABk9SR5aB_fWiYQ</t>
+          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHnC7lfrdE4zTReXCuq%2FvOXr%2FUezp8qxrnLR%2BxP5Xi8%2BEw%2F3DblYBa0eXZEUWCszbxZbex2AVcbPaKvU9tLlibG9kPu5ZuZSqUmx2n9qzjY3CMVEbsVMSwHpVceU4yhGJjkt8shp9ty9wh7mVeO%2B9WxIwtGXIssE2Un%2FjGxc9Gnic%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Purchase Options</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time Left</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -491,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwFwBouel6ZNeh77z1LZwqB50vruXLvrfF5KQdexed9Oc3fnFiE65OFeD7Fi9288UjRupPWDc99Y1ghXmA2DXZWUK0geD3ZPZA97vg1GxSvlxuRd0I4GmmergnjsTFJ2jFhK00TeNZ8N9sYWRVq%2F1n0FvNg8%2FlXgDrEmCr9G93Af0%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
+          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwulsj3Q3WtshmmFTonlSzq5%2BY9bf%2BFpgGcY40jugzJBklU60ZTfSRPH1tr4%2FrOVDJ9glCe1RFfTe5D7QPj4U00ElLi3rIDkJRzuDDZaFAQNrqXetgCj2i6V5gt%2FU9Nq%2BDkEp%2F12EGRZCz%2FiXftz2q%2BuTdoaFyU%2BG3PUtDgiKh0vo%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,6 +526,11 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>ou Oferta direta</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
@@ -535,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGbhST2ZWVdK8eNscwvnvjWm%2BFuKTh9B9sd77YoRHRQffyKxlhZcP8EN%2Ba%2FJMIPgeeQcYY9VIS9y8mZKjAbJg%2B6XBMIyTiooX70JcOxwztQ%2B1j%2Bm207BDnsVOfMzTBQCA8SJ6mkhKxFY%2FHdsiMoiGcsip2NXS6xPPXGareY2jfOnQ%3D%7Ctkp%3ABk9SR7CFyoOjYQ</t>
+          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjG4U1Tfd8mHVtqMu7m01S817jmRLNDFxk3hWr3zQjbO73QXJmWfucg84ep%2F4517NjXyAbmPV2sr97eTBUQVnyaKosudO8s7b5bnhjEEp2QALiD7CpYiAR6kf0IafFKuFvKeGJUws3gzUVGOJblJWiiNsPxSqlykHIzR0%2F0RWlr1WA%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -565,6 +575,11 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>Comprar já!</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Not specified</t>
         </is>
       </c>
     </row>
@@ -579,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnTEF%2BXKO0kK2lgYMQeolJDMdK4U9bEGxsdJmhvO0YRH%2FSUAYSo7XX1FhD4MjojlggD2ptWyvyWNQvhC%2BPg%2BnXybznbTP6CPPDN1MJ%2FCKWUsIY4%2BRKIZa6VQXa7z%2FVbErUMosK6B89MtHeKjNr9zJ%2FpA%3D%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
+          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnFvxXxCxSMCGsQ141YG1jpLb98QSxAQrNYtKTjol6U8fjEjTcp6xDUIPHuSB%2F0X274OLeRxUcpTF24YDK0Wheqj%2B7UMxGoYlAQNTGE3CVsB2f5J%2FQEq%2Bz6X74BusFiv5gXqJo3hZR0oO%2BZ1vcI11c1Q%3D%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -609,6 +624,11 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3d restantes</t>
         </is>
       </c>
     </row>
@@ -618,12 +638,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Novo anúncioTarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
+          <t>Tarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmJMWtsxg3TAI0xLNybDthbWeYCOO%2FcLj4fXkLM26JTyS%2B3eCW%2BR33fAAKhS9qANH1YiT53oW5Fr%2FHmViOQagMpsb8wTOAXtbN7%2BrDwz%2B5mjSKKxuGKGoZ0QEXqU9VQZX0KN6vJFEZQtA084WohwwC7h6N0yCiHKXwwYS9ruKh09g%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
+          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDm9zAsg8a1xELtPQViMrGfgC5Mz5WhCmnSSbqgUrAptcBoIn5VHUaK90CSTzEEhr369OFFur9mEm7yI8etIDRA9C%2FVHdfAVvIL8i41Uumy7s7htLe7oYC1sXy4BwQ4hARbN%2FMQJ8Tm5zyJNhzt2rkyeqgFfq78NNFeGc3v8qDueOo%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -653,6 +673,11 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5d 19h restantes</t>
         </is>
       </c>
     </row>
@@ -667,7 +692,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHnC7lfrdE4zTReXCuq%2FvOXr%2FUezp8qxrnLR%2BxP5Xi8%2BEw%2F3DblYBa0eXZEUWCszbxZbex2AVcbPaKvU9tLlibG9kPu5ZuZSqUmx2n9qzjY3CMVEbsVMSwHpVceU4yhGJjkt8shp9ty9wh7mVeO%2B9WxIwtGXIssE2Un%2FjGxc9Gnic%3D%7Ctkp%3ABk9SR66FyoOjYQ</t>
+          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHD3FFtxjIlg0ihGLMNLeO%2F6pEDHAPAgl1GlQ46bvqTy9azvTM%2B2nvBJ6Lqr7YQqckMY%2FbkEgloFUJbwM5gvriIzHW9rq7x6luVhkX0UIOtL822RfKlxIVMXaw9wQjvrF9qN0dbmgVLpjf9NfQLalpPmiScXi15gy4CUktr9NfRsA%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,6 +722,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2d 4h restantes</t>
         </is>
       </c>
     </row>

--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwulsj3Q3WtshmmFTonlSzq5%2BY9bf%2BFpgGcY40jugzJBklU60ZTfSRPH1tr4%2FrOVDJ9glCe1RFfTe5D7QPj4U00ElLi3rIDkJRzuDDZaFAQNrqXetgCj2i6V5gt%2FU9Nq%2BDkEp%2F12EGRZCz%2FiXftz2q%2BuTdoaFyU%2BG3PUtDgiKh0vo%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
+          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwwN8gERo1QG8THm0o8LhT0Z2CWTLpiihlW2Jqo9UGKd4chTi6G%2BhgFVtqmYv8EhdiAwzzeQ1HWHx7vheckA0u7oQz1RMfzVFLVKCVy1LGoFt4KCrHWtXYMEREawLxKhbfEQrJMXQKdzq1zPLiBr1GaiD7oXE3O67fN8jUf4ZFJSA%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjG4U1Tfd8mHVtqMu7m01S817jmRLNDFxk3hWr3zQjbO73QXJmWfucg84ep%2F4517NjXyAbmPV2sr97eTBUQVnyaKosudO8s7b5bnhjEEp2QALiD7CpYiAR6kf0IafFKuFvKeGJUws3gzUVGOJblJWiiNsPxSqlykHIzR0%2F0RWlr1WA%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
+          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjG%2FuifRtUKslCBpUxzH3JynE4T6%2FM94mhy0pgeZkU2Wm30%2B5tOXwuKJtEfVusYws3B6WMTIpJGRtcUr8n8sMhRFD47g%2FySNakl3%2BhpFyuV6dq8fZdfnhWGTlUTQcF2xkE2BW2dxVkK8hYZJ5TRdiEXW18yq4SvssZ9jfiIgPSdN0o%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAPPHIRE NITRO+ AMD Radeon RX 6900 XT SE 16GB GDDR6 Grafikkarte, Wie Neu</t>
+          <t>Novo anúncioPowerColor Red Devil Radeon RX 6900 XT 16 Go GDDR6 Carte Graphique TBE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJnFvxXxCxSMCGsQ141YG1jpLb98QSxAQrNYtKTjol6U8fjEjTcp6xDUIPHuSB%2F0X274OLeRxUcpTF24YDK0Wheqj%2B7UMxGoYlAQNTGE3CVsB2f5J%2FQEq%2Bz6X74BusFiv5gXqJo3hZR0oO%2BZ1vcI11c1Q%3D%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
+          <t>https://www.ebay.com/itm/394381873231?epid=7050529243&amp;hash=item5bd2fdd04f:g:vzsAAOSwyghjnKug&amp;amdata=enc%3AAQAHAAAAkB3NEuFpGgXCau7OnPW1AXiUui0xbUF3H3rVBhVWvtl69O%2B%2FsoxuZY0TjiRlsciqGAvEUTjBveVTwFlRKIaOvLwMMvG2%2FBb1tHrIxUyipe8Tyf6kIXbJ1WjS%2FVAtyFxa2ex7s2Z%2F30CsUXjtNr4Z7FUMQq2dLzOxBACG1BQ0b00vpfK5TCflICHJuBUaDXT%2BPQ%3D%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -603,18 +603,18 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>de Alemanha</t>
+          <t>de França</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>685</v>
+        <v>609</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -628,22 +628,22 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3d restantes</t>
+          <t>2d 22h restantes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
+          <t>SAPPHIRE NITRO+ AMD Radeon RX 6900 XT SE 16GB GDDR6 Grafikkarte, Wie Neu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDm9zAsg8a1xELtPQViMrGfgC5Mz5WhCmnSSbqgUrAptcBoIn5VHUaK90CSTzEEhr369OFFur9mEm7yI8etIDRA9C%2FVHdfAVvIL8i41Uumy7s7htLe7oYC1sXy4BwQ4hARbN%2FMQJ8Tm5zyJNhzt2rkyeqgFfq78NNFeGc3v8qDueOo%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
+          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJn5Ux9KmyJYM0gh6SCd8i7oryvdHANMHqRmXDvbeQPqGVnsI%2F0mIoayRInFFnyzvkmv8V%2BZtlTWEHSmeZltJIS4A9kQiaa6tYAN8VPc8CXfXOlmDe7eQtSJ9FNzuc3SO4jJyrYqrUqwuDvNYnCaGRwTw%3D%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -652,15 +652,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>de Espanha</t>
+          <t>de Alemanha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>700</v>
@@ -677,56 +677,105 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>5d 19h restantes</t>
+          <t>2d 20h restantes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Tarjeta Gráfica AMD Radeon Gigabyte RX 6900 XT Gaming OC 16 GB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmNNaWXTEEAxNLjwP9W9oQXcDT0RyBToeg%2FXguFDjMKh61kysiv8FudGZ4TPL7849J8YN8i1ebZSHO%2BXMoNE2ri%2FkWe%2FYGl%2F8%2BJarWYhv%2BOmXZjdh6GtFk0HEhlV51XQLfC5WpxY1gUCmYtnZo5V04bdg0zXRWcWlCZz0%2FUs61xG8%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Seminovo</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>600</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>de Espanha</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>700</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No other purchase options</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5d 14h restantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>ASUS ROG Strix LC Radeon RX 6900 XT OC Grafikkarte 16GB GDDR6 2xDP/HDMI/USB-C</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHD3FFtxjIlg0ihGLMNLeO%2F6pEDHAPAgl1GlQ46bvqTy9azvTM%2B2nvBJ6Lqr7YQqckMY%2FbkEgloFUJbwM5gvriIzHW9rq7x6luVhkX0UIOtL822RfKlxIVMXaw9wQjvrF9qN0dbmgVLpjf9NfQLalpPmiScXi15gy4CUktr9NfRsA%3D%7Ctkp%3ABk9SR9bSt7WjYQ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHPL9HUcAVRC8O%2Bv3DNiZK4gh2osDg6uCCMXJHIKf%2BdCwMMcY4hXD%2B033hIViPqboTGecvmPYv%2FZ4DxejHXvK%2F9C43EbKmkxW22VB1%2BI3UUduEhzy9LM3JkgJudCPFYuuiYDlvMGfTG%2FP7yy3ifhhQGmY2rOhiZfv%2Bj2sFKIisJNA%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Seminovo</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>700</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>de Alemanha</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>30</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>730</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>No other purchase options</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2d 4h restantes</t>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1d 23h restantes</t>
         </is>
       </c>
     </row>

--- a/results/6900xt.xlsx
+++ b/results/6900xt.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwwN8gERo1QG8THm0o8LhT0Z2CWTLpiihlW2Jqo9UGKd4chTi6G%2BhgFVtqmYv8EhdiAwzzeQ1HWHx7vheckA0u7oQz1RMfzVFLVKCVy1LGoFt4KCrHWtXYMEREawLxKhbfEQrJMXQKdzq1zPLiBr1GaiD7oXE3O67fN8jUf4ZFJSA%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/225299351425?hash=item3474e34781:g:WagAAOSwxeNjmfpZ&amp;amdata=enc%3AAQAHAAAAoMZmeAwO9uGAOepXocLGZPSvZ7HVASv%2Bz9HfSuZcidVwpFvNwsX7aNdkpED%2BR0LjdN%2B7OZwW%2FQ23D32LyWd5LZZ1pNzO%2FDGLfkUxuLZc3vzm3%2FGghSVbtZW%2BkEZqzxfQS9QWJgpUDyYfJ%2B7TxJlLAwKZURFfziJeQRDZZ27wA431awRAaJV1CuZuZJe8H7%2Fh%2BB%2FLCvLWhRnIJ4gsPdUFX%2BY%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -536,7 +536,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjG%2FuifRtUKslCBpUxzH3JynE4T6%2FM94mhy0pgeZkU2Wm30%2B5tOXwuKJtEfVusYws3B6WMTIpJGRtcUr8n8sMhRFD47g%2FySNakl3%2BhpFyuV6dq8fZdfnhWGTlUTQcF2xkE2BW2dxVkK8hYZJ5TRdiEXW18yq4SvssZ9jfiIgPSdN0o%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/404050551629?epid=8047515616&amp;hash=item5e134a234d:g:cYsAAOSwWPljk3xw&amp;amdata=enc%3AAQAHAAAAoGiTEUPW5VtRzKGDLjO84d5VQscWIRHpASDiRaUr3QjGqfQ0C%2F0SnslLM1FZJZvYNLcZZJUcm86mM99muOwRbgHNnYdrTGhjmysKuxwzcvBz9ju82GQJBqNBnkbBbLGtryeyKcHrM8gjmuVhNCApuzD4JT1tBAJBA7W4MiDcpXD7JXJuscnm68MFHOCUbsfE3GhxWkneP5qhVD5s%2BT06SlA%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/394381873231?epid=7050529243&amp;hash=item5bd2fdd04f:g:vzsAAOSwyghjnKug&amp;amdata=enc%3AAQAHAAAAkB3NEuFpGgXCau7OnPW1AXiUui0xbUF3H3rVBhVWvtl69O%2B%2FsoxuZY0TjiRlsciqGAvEUTjBveVTwFlRKIaOvLwMMvG2%2FBb1tHrIxUyipe8Tyf6kIXbJ1WjS%2FVAtyFxa2ex7s2Z%2F30CsUXjtNr4Z7FUMQq2dLzOxBACG1BQ0b00vpfK5TCflICHJuBUaDXT%2BPQ%3D%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/394381873231?epid=7050529243&amp;hash=item5bd2fdd04f:g:vzsAAOSwyghjnKug&amp;amdata=enc%3AAQAHAAAAkB3NEuFpGgXCau7OnPW1AXiUui0xbUF3H3rVBhVWvtl6A2byt%2BUPoQVmRK2kM5FDUbyojnK%2BbMbnOhULck51UcJHaYS3N3cYFkpLnQl%2BpGkZUmu5swLIr3toXJQ6WASxR1jO9hxGawX2OH%2B48s%2Bt5cehKmMJjQQH9Y0W%2FjwkqZTgDiQRJ1%2Fu8CKVC12Vr671XQ%3D%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -634,7 +634,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJn5Ux9KmyJYM0gh6SCd8i7oryvdHANMHqRmXDvbeQPqGVnsI%2F0mIoayRInFFnyzvkmv8V%2BZtlTWEHSmeZltJIS4A9kQiaa6tYAN8VPc8CXfXOlmDe7eQtSJ9FNzuc3SO4jJyrYqrUqwuDvNYnCaGRwTw%3D%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/295403696780?epid=7050209760&amp;hash=item44c76eb28c:g:bw4AAOSwChJjk1Kw&amp;amdata=enc%3AAQAHAAAAkBAKU7HgZCqFBzuU0e3plvMFS2not8HtJB9dLimFOyJn7p7G8SwsRzGch7ggfjJbnPOlRt64YY8UNLv9vJXSfVq6JGf1fkNqDjYqlT12KQYhZ81taT9Cl3wqrk7drN0Y7U3L5vV15DJ1kD3%2FbcPXtys8YD5LSR8hSy4V8E1kiYCL1RgBB2y1AGgVWz72ATtLzw%3D%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDmNNaWXTEEAxNLjwP9W9oQXcDT0RyBToeg%2FXguFDjMKh61kysiv8FudGZ4TPL7849J8YN8i1ebZSHO%2BXMoNE2ri%2FkWe%2FYGl%2F8%2BJarWYhv%2BOmXZjdh6GtFk0HEhlV51XQLfC5WpxY1gUCmYtnZo5V04bdg0zXRWcWlCZz0%2FUs61xG8%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/295418574962?hash=item44c851b872:g:QQkAAOSwJNhjmuak&amp;amdata=enc%3AAQAHAAAAoInV0dSL5sn815Yx6uFdOd3lkWn1srcTHg1wPp96pvDm3dtbN%2BDVAWM8SGUvtVTgjX2qop3EiFo0WL6g90fW4no8WURnRUIZOwylhFugJpArJudgNVqqTlouBss1YjzHMeLXH6A8j%2B4gBMUZKWKepRhvTAMvn9ts2lM2vxmNGdRnywWTm0DMhboOmLGJnKSx2mhOoyb7D1CYGaDP3TdJK40%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -732,7 +732,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLHPL9HUcAVRC8O%2Bv3DNiZK4gh2osDg6uCCMXJHIKf%2BdCwMMcY4hXD%2B033hIViPqboTGecvmPYv%2FZ4DxejHXvK%2F9C43EbKmkxW22VB1%2BI3UUduEhzy9LM3JkgJudCPFYuuiYDlvMGfTG%2FP7yy3ifhhQGmY2rOhiZfv%2Bj2sFKIisJNA%3D%7Ctkp%3ABk9SR7K8v8WjYQ</t>
+          <t>https://www.ebay.com/itm/285074976656?epid=14050520857&amp;hash=item425fcaef90:g:EGcAAOSwdJBjlNZH&amp;amdata=enc%3AAQAHAAAAoJj3syuSee2Bl6pg78DOlpmggJb6JULGmdUQt%2FVrBsLH2V9oui5N1lSDruzCMzhEMiTfam3hrW%2BGqxNvowbB4SdQH4PntwEV1uPCdJdgP%2BFJTRb6BDpyrMLe0q%2Fag2FVNtPG8mFw8X90%2FnzPycdP3%2BmeHA47qAl00dmM4wTVs3AO3seNrM9RAgZDaCd0dT1VnD%2B%2F2JIp63BO5uKglYymB3w%3D%7Ctkp%3ABk9SR6ry5MWjYQ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
